--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/ALASKA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/ALASKA_2022.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:D49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -558,12 +558,12 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C14">
@@ -703,7 +703,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C24">
@@ -716,7 +716,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C25">
@@ -729,7 +729,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C26">
@@ -768,7 +768,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Valle de Guadalupe</t>
+          <t>Valle De Guadalupe</t>
         </is>
       </c>
       <c r="C29">
@@ -1071,41 +1071,6 @@
       </c>
       <c r="D49">
         <v>1</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 566,547</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Mayo de 2023</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2022/ALASKA_2022.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2022/ALASKA_2022.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Total</t>
@@ -486,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -499,6 +524,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B10" t="inlineStr">
         <is>
           <t>Total</t>
@@ -530,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -543,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Total</t>
@@ -574,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -587,6 +632,11 @@
       </c>
     </row>
     <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B16" t="inlineStr">
         <is>
           <t>Total</t>
@@ -618,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -631,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>León</t>
@@ -644,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Total</t>
@@ -675,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -688,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -701,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>San Juan De Los Lagos</t>
@@ -714,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>San Miguel El Alto</t>
@@ -727,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Tepatitlán De Morelos</t>
@@ -740,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Teuchitlán</t>
@@ -753,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Tlaquepaque</t>
@@ -766,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Valle De Guadalupe</t>
@@ -779,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Total</t>
@@ -810,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -823,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Michoacán</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Total</t>
@@ -854,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Total</t>
@@ -885,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>Total</t>
@@ -916,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -929,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Total</t>
@@ -960,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Total</t>
@@ -991,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Puerto Peñasco</t>
@@ -1004,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1035,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Villanueva</t>
@@ -1048,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Total</t>
